--- a/src/main/resources/template/excel/export/PurReportTotalCategory.xlsx
+++ b/src/main/resources/template/excel/export/PurReportTotalCategory.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13200"/>
+    <workbookView windowWidth="24180" windowHeight="13200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -130,14 +130,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ ;[Red]\-0.00\ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ ;[Red]\-0.00\ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,11 +154,32 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -169,7 +191,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,8 +244,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -192,106 +297,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,187 +319,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,6 +524,80 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,80 +625,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -626,10 +633,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -638,7 +645,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -647,148 +654,154 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1140,7 +1153,7 @@
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="15" outlineLevelRow="2"/>
@@ -1167,17 +1180,17 @@
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="5" t="s">
@@ -1208,32 +1221,32 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1" t="s">
+    <row r="3" ht="16.5" spans="1:9">
+      <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="8" t="s">
         <v>18</v>
       </c>
     </row>

--- a/src/main/resources/template/excel/export/PurReportTotalCategory.xlsx
+++ b/src/main/resources/template/excel/export/PurReportTotalCategory.xlsx
@@ -131,12 +131,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.0000_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ ;[Red]\-0.00\ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -167,6 +167,104 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,113 +282,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -319,13 +319,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -337,169 +499,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -524,41 +524,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -593,6 +558,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -616,15 +625,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -633,10 +633,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -645,133 +645,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1153,7 +1153,7 @@
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="15" outlineLevelRow="2"/>

--- a/src/main/resources/template/excel/export/PurReportTotalCategory.xlsx
+++ b/src/main/resources/template/excel/export/PurReportTotalCategory.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="13200"/>
+    <workbookView windowWidth="21315" windowHeight="8730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
+  <oleSize ref="A1:M3"/>
 </workbook>
 </file>
 
@@ -21,15 +22,6 @@
   <commentList>
     <comment ref="A1" authorId="0">
       <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">作者:
-</t>
-        </r>
         <r>
           <rPr>
             <sz val="9"/>
@@ -48,15 +40,6 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">YSCGD:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
           <t xml:space="preserve">jx:each(items="reportList" var="obj" lastCell="I3")
 </t>
         </r>
@@ -131,14 +114,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="0.0000_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ ;[Red]\-0.00\ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0000_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_ ;[Red]\-0.00\ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,35 +137,22 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,21 +166,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -218,40 +173,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,9 +195,85 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -282,23 +288,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -313,7 +303,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.6"/>
+        <fgColor rgb="FF99CCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -325,175 +423,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -528,17 +518,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,16 +544,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -586,42 +581,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -633,10 +623,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -645,137 +635,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -785,23 +775,20 @@
     <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1153,22 +1140,17 @@
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="15" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="22.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="18.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.75" style="2" customWidth="1"/>
-    <col min="6" max="6" width="19.375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="18.5" style="2" customWidth="1"/>
-    <col min="8" max="9" width="20.875" style="2" customWidth="1"/>
+    <col min="1" max="2" width="12.625" style="1" customWidth="1"/>
+    <col min="3" max="9" width="12.625" style="2" customWidth="1"/>
     <col min="10" max="16384" width="11.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" ht="30" customHeight="1" spans="1:20">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1180,73 +1162,73 @@
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" ht="20" customHeight="1" spans="1:9">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" ht="16.5" spans="1:9">
-      <c r="A3" s="7" t="s">
+    <row r="3" ht="16.5" customHeight="1" spans="1:9">
+      <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="7" t="s">
         <v>18</v>
       </c>
     </row>

--- a/src/main/resources/template/excel/export/PurReportTotalCategory.xlsx
+++ b/src/main/resources/template/excel/export/PurReportTotalCategory.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\okdeer\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,9 +30,10 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="I4")</t>
+          <t>jx:area(lastCell="I3")</t>
         </r>
       </text>
     </comment>
@@ -42,6 +43,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">jx:each(items="reportList" var="obj" lastCell="I3")
@@ -54,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>采购汇总查询-类别汇总</t>
   </si>
@@ -111,47 +113,15 @@
   </si>
   <si>
     <t>${obj.taxAmount}</t>
-  </si>
-  <si>
-    <t>总计：</t>
-  </si>
-  <si>
-    <t>$[SUM(C3)]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(D3)]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(E3)]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(F3)]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(G3)]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(H3)]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(I3)]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ ;[Red]\-0.00\ "/>
-    <numFmt numFmtId="180" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -166,6 +136,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -173,22 +144,26 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -236,7 +211,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -262,9 +237,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -273,74 +245,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -360,7 +264,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -639,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -735,33 +639,6 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A4" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
